--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1100.368243825427</v>
+        <v>1183.684117462073</v>
       </c>
       <c r="AB2" t="n">
-        <v>1505.572376022745</v>
+        <v>1619.568829969337</v>
       </c>
       <c r="AC2" t="n">
-        <v>1361.882661539235</v>
+        <v>1464.999453916192</v>
       </c>
       <c r="AD2" t="n">
-        <v>1100368.243825427</v>
+        <v>1183684.117462073</v>
       </c>
       <c r="AE2" t="n">
-        <v>1505572.376022745</v>
+        <v>1619568.829969337</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283596229980258e-06</v>
+        <v>2.169983113950282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.78559027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1361882.661539235</v>
+        <v>1464999.453916192</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>534.0705311886501</v>
+        <v>586.0577008655335</v>
       </c>
       <c r="AB3" t="n">
-        <v>730.7388623012586</v>
+        <v>801.8700013652289</v>
       </c>
       <c r="AC3" t="n">
-        <v>660.9981708816603</v>
+        <v>725.3406538665459</v>
       </c>
       <c r="AD3" t="n">
-        <v>534070.5311886501</v>
+        <v>586057.7008655336</v>
       </c>
       <c r="AE3" t="n">
-        <v>730738.8623012586</v>
+        <v>801870.0013652289</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.013998710860063e-06</v>
+        <v>3.404764747673955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.06076388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>660998.1708816603</v>
+        <v>725340.653866546</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.7338814820301</v>
+        <v>469.7209616503626</v>
       </c>
       <c r="AB4" t="n">
-        <v>571.5619257619036</v>
+        <v>642.6929423563255</v>
       </c>
       <c r="AC4" t="n">
-        <v>517.0128577593878</v>
+        <v>581.355229963047</v>
       </c>
       <c r="AD4" t="n">
-        <v>417733.8814820301</v>
+        <v>469720.9616503626</v>
       </c>
       <c r="AE4" t="n">
-        <v>571561.9257619036</v>
+        <v>642692.9423563255</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.296430962510505e-06</v>
+        <v>3.882230482304418e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.823784722222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>517012.8577593878</v>
+        <v>581355.229963047</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>381.1493091457949</v>
+        <v>422.7219946180976</v>
       </c>
       <c r="AB5" t="n">
-        <v>521.5052998940454</v>
+        <v>578.3868822146917</v>
       </c>
       <c r="AC5" t="n">
-        <v>471.7335660094423</v>
+        <v>523.1864499472083</v>
       </c>
       <c r="AD5" t="n">
-        <v>381149.3091457949</v>
+        <v>422721.9946180976</v>
       </c>
       <c r="AE5" t="n">
-        <v>521505.2998940453</v>
+        <v>578386.8822146917</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.408376836801044e-06</v>
+        <v>4.071480537121583e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.413628472222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>471733.5660094423</v>
+        <v>523186.4499472083</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>349.004371445432</v>
+        <v>390.5770569177347</v>
       </c>
       <c r="AB6" t="n">
-        <v>477.5231779978445</v>
+        <v>534.4047603184908</v>
       </c>
       <c r="AC6" t="n">
-        <v>431.949036097719</v>
+        <v>483.4019200354851</v>
       </c>
       <c r="AD6" t="n">
-        <v>349004.371445432</v>
+        <v>390577.0569177347</v>
       </c>
       <c r="AE6" t="n">
-        <v>477523.1779978445</v>
+        <v>534404.7603184908</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.510892741697635e-06</v>
+        <v>4.244788760799021e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.068576388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>431949.036097719</v>
+        <v>483401.9200354851</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>350.2171804232113</v>
+        <v>391.7898658955141</v>
       </c>
       <c r="AB7" t="n">
-        <v>479.1825967465982</v>
+        <v>536.0641790672445</v>
       </c>
       <c r="AC7" t="n">
-        <v>433.4500822501005</v>
+        <v>484.9029661878666</v>
       </c>
       <c r="AD7" t="n">
-        <v>350217.1804232114</v>
+        <v>391789.8658955141</v>
       </c>
       <c r="AE7" t="n">
-        <v>479182.5967465981</v>
+        <v>536064.1790672445</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.510706009630428e-06</v>
+        <v>4.244473080974471e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.070746527777779</v>
       </c>
       <c r="AH7" t="n">
-        <v>433450.0822501005</v>
+        <v>484902.9661878666</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>767.6561055114981</v>
+        <v>838.1194882179269</v>
       </c>
       <c r="AB2" t="n">
-        <v>1050.340950158023</v>
+        <v>1146.752059002008</v>
       </c>
       <c r="AC2" t="n">
-        <v>950.0978840377229</v>
+        <v>1037.307651967479</v>
       </c>
       <c r="AD2" t="n">
-        <v>767656.1055114982</v>
+        <v>838119.4882179269</v>
       </c>
       <c r="AE2" t="n">
-        <v>1050340.950158023</v>
+        <v>1146752.059002008</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581303626162563e-06</v>
+        <v>2.738487399888737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>950097.8840377229</v>
+        <v>1037307.651967479</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.4509514473864</v>
+        <v>472.733198466095</v>
       </c>
       <c r="AB3" t="n">
-        <v>578.0160289909439</v>
+        <v>646.8144176581197</v>
       </c>
       <c r="AC3" t="n">
-        <v>522.8509904346392</v>
+        <v>585.0833574465648</v>
       </c>
       <c r="AD3" t="n">
-        <v>422450.9514473865</v>
+        <v>472733.198466095</v>
       </c>
       <c r="AE3" t="n">
-        <v>578016.0289909439</v>
+        <v>646814.4176581197</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.26194414983515e-06</v>
+        <v>3.917214538113505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.266493055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>522850.9904346393</v>
+        <v>585083.3574465648</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>335.5752279201207</v>
+        <v>375.8522479495406</v>
       </c>
       <c r="AB4" t="n">
-        <v>459.1488313745143</v>
+        <v>514.2576270754834</v>
       </c>
       <c r="AC4" t="n">
-        <v>415.3283113275621</v>
+        <v>465.1776009125111</v>
       </c>
       <c r="AD4" t="n">
-        <v>335575.2279201206</v>
+        <v>375852.2479495406</v>
       </c>
       <c r="AE4" t="n">
-        <v>459148.8313745143</v>
+        <v>514257.6270754833</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.538179696550575e-06</v>
+        <v>4.395596773862455e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.257378472222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>415328.3113275621</v>
+        <v>465177.6009125111</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>324.2459516642674</v>
+        <v>364.5229716936874</v>
       </c>
       <c r="AB5" t="n">
-        <v>443.6476157888625</v>
+        <v>498.7564114898315</v>
       </c>
       <c r="AC5" t="n">
-        <v>401.3065100013122</v>
+        <v>451.1557995862611</v>
       </c>
       <c r="AD5" t="n">
-        <v>324245.9516642674</v>
+        <v>364522.9716936874</v>
       </c>
       <c r="AE5" t="n">
-        <v>443647.6157888625</v>
+        <v>498756.4114898315</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.574109634794678e-06</v>
+        <v>4.457819917813017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.142361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>401306.5100013122</v>
+        <v>451155.7995862612</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.2921345431058</v>
+        <v>331.7536865025183</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.0317258514289</v>
+        <v>453.9200298124422</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.4715049982565</v>
+        <v>410.5985392479053</v>
       </c>
       <c r="AD2" t="n">
-        <v>295292.1345431058</v>
+        <v>331753.6865025184</v>
       </c>
       <c r="AE2" t="n">
-        <v>404031.7258514289</v>
+        <v>453920.0298124423</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.57443920484566e-06</v>
+        <v>4.871392968418466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.084201388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>365471.5049982565</v>
+        <v>410598.5392479053</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.9801143104403</v>
+        <v>319.4716015194454</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.8716795491206</v>
+        <v>437.1151392912542</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.0944525886584</v>
+        <v>395.3974838922473</v>
       </c>
       <c r="AD3" t="n">
-        <v>273980.1143104403</v>
+        <v>319471.6015194454</v>
       </c>
       <c r="AE3" t="n">
-        <v>374871.6795491206</v>
+        <v>437115.1392912542</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.645463420360094e-06</v>
+        <v>5.005786067852794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>339094.4525886584</v>
+        <v>395397.4838922473</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.6441535264998</v>
+        <v>475.0420560753416</v>
       </c>
       <c r="AB2" t="n">
-        <v>585.121597183493</v>
+        <v>649.9734984986999</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.2784131716191</v>
+        <v>587.9409400455179</v>
       </c>
       <c r="AD2" t="n">
-        <v>427644.1535264999</v>
+        <v>475042.0560753416</v>
       </c>
       <c r="AE2" t="n">
-        <v>585121.597183493</v>
+        <v>649973.4984986999</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.159856834041218e-06</v>
+        <v>3.934790085190175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.36024305555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>529278.4131716192</v>
+        <v>587940.9400455179</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.4114721798163</v>
+        <v>327.3127439496855</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.9855441694627</v>
+        <v>447.8437362910985</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.1932396031303</v>
+        <v>405.1021586521068</v>
       </c>
       <c r="AD3" t="n">
-        <v>289411.4721798163</v>
+        <v>327312.7439496855</v>
       </c>
       <c r="AE3" t="n">
-        <v>395985.5441694628</v>
+        <v>447843.7362910985</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.6472371688948e-06</v>
+        <v>4.822691208576367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.452690972222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>358193.2396031303</v>
+        <v>405102.1586521068</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>290.8858557012247</v>
+        <v>328.7871274710939</v>
       </c>
       <c r="AB4" t="n">
-        <v>398.002860748664</v>
+        <v>449.8610528702996</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.0180263193341</v>
+        <v>406.9269453683107</v>
       </c>
       <c r="AD4" t="n">
-        <v>290885.8557012246</v>
+        <v>328787.1274710939</v>
       </c>
       <c r="AE4" t="n">
-        <v>398002.860748664</v>
+        <v>449861.0528702996</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.646721640721695e-06</v>
+        <v>4.821752028204688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.454861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>360018.0263193341</v>
+        <v>406926.9453683107</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.1337903710157</v>
+        <v>316.97644800576</v>
       </c>
       <c r="AB2" t="n">
-        <v>373.7137017980228</v>
+        <v>433.7011601754258</v>
       </c>
       <c r="AC2" t="n">
-        <v>338.0469906088934</v>
+        <v>392.3093301516836</v>
       </c>
       <c r="AD2" t="n">
-        <v>273133.7903710157</v>
+        <v>316976.44800576</v>
       </c>
       <c r="AE2" t="n">
-        <v>373713.7017980228</v>
+        <v>433701.1601754258</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.587358547729043e-06</v>
+        <v>5.070389105414818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.388020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>338046.9906088934</v>
+        <v>392309.3301516837</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>835.456650406976</v>
+        <v>906.6865958370886</v>
       </c>
       <c r="AB2" t="n">
-        <v>1143.108646832952</v>
+        <v>1240.568600613842</v>
       </c>
       <c r="AC2" t="n">
-        <v>1034.011961942276</v>
+        <v>1122.170474520223</v>
       </c>
       <c r="AD2" t="n">
-        <v>835456.650406976</v>
+        <v>906686.5958370885</v>
       </c>
       <c r="AE2" t="n">
-        <v>1143108.646832952</v>
+        <v>1240568.600613842</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501436182210714e-06</v>
+        <v>2.583192735437743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.83463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1034011.961942277</v>
+        <v>1122170.474520223</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>445.7101609692761</v>
+        <v>496.4181012187643</v>
       </c>
       <c r="AB3" t="n">
-        <v>609.8403055826973</v>
+        <v>679.2211465084857</v>
       </c>
       <c r="AC3" t="n">
-        <v>551.6380027341283</v>
+        <v>614.3972335785816</v>
       </c>
       <c r="AD3" t="n">
-        <v>445710.1609692761</v>
+        <v>496418.1012187643</v>
       </c>
       <c r="AE3" t="n">
-        <v>609840.3055826973</v>
+        <v>679221.1465084858</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.199987837047753e-06</v>
+        <v>3.785037729905718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.442274305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>551638.0027341284</v>
+        <v>614397.2335785816</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>356.9704345953209</v>
+        <v>397.5880092093647</v>
       </c>
       <c r="AB4" t="n">
-        <v>488.4226970374254</v>
+        <v>543.9974545452847</v>
       </c>
       <c r="AC4" t="n">
-        <v>441.8083203377335</v>
+        <v>492.0791009887046</v>
       </c>
       <c r="AD4" t="n">
-        <v>356970.4345953208</v>
+        <v>397588.0092093647</v>
       </c>
       <c r="AE4" t="n">
-        <v>488422.6970374254</v>
+        <v>543997.4545452846</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.471061869179638e-06</v>
+        <v>4.251415507972763e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.407118055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>441808.3203377335</v>
+        <v>492079.1009887046</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>330.7443107861731</v>
+        <v>371.3618854002169</v>
       </c>
       <c r="AB5" t="n">
-        <v>452.5389574268249</v>
+        <v>508.1137149346841</v>
       </c>
       <c r="AC5" t="n">
-        <v>409.3492744724239</v>
+        <v>459.620055123395</v>
       </c>
       <c r="AD5" t="n">
-        <v>330744.3107861731</v>
+        <v>371361.8854002169</v>
       </c>
       <c r="AE5" t="n">
-        <v>452538.957426825</v>
+        <v>508113.7149346842</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.554911040135687e-06</v>
+        <v>4.395676430849436e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.129340277777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>409349.2744724239</v>
+        <v>459620.0551233951</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.0083653012017</v>
+        <v>372.6259399152455</v>
       </c>
       <c r="AB6" t="n">
-        <v>454.2684925804365</v>
+        <v>509.8432500882957</v>
       </c>
       <c r="AC6" t="n">
-        <v>410.9137452183925</v>
+        <v>461.1845258693638</v>
       </c>
       <c r="AD6" t="n">
-        <v>332008.3653012017</v>
+        <v>372625.9399152455</v>
       </c>
       <c r="AE6" t="n">
-        <v>454268.4925804365</v>
+        <v>509843.2500882957</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.554911040135687e-06</v>
+        <v>4.395676430849436e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.129340277777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>410913.7452183925</v>
+        <v>461184.5258693638</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.6532541068536</v>
+        <v>312.7406315214601</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.9514785309734</v>
+        <v>427.9055291905719</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.7392672466289</v>
+        <v>387.0668260538052</v>
       </c>
       <c r="AD2" t="n">
-        <v>269653.2541068536</v>
+        <v>312740.6315214601</v>
       </c>
       <c r="AE2" t="n">
-        <v>368951.4785309734</v>
+        <v>427905.5291905719</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.522307329819365e-06</v>
+        <v>5.056369561712092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.856770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>333739.2672466289</v>
+        <v>387066.8260538052</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.6293112516149</v>
+        <v>635.5148217175047</v>
       </c>
       <c r="AB2" t="n">
-        <v>788.9696627442719</v>
+        <v>869.5394160090771</v>
       </c>
       <c r="AC2" t="n">
-        <v>713.6715054578341</v>
+        <v>786.5517945514054</v>
       </c>
       <c r="AD2" t="n">
-        <v>576629.3112516149</v>
+        <v>635514.8217175046</v>
       </c>
       <c r="AE2" t="n">
-        <v>788969.6627442719</v>
+        <v>869539.4160090771</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.843485002091146e-06</v>
+        <v>3.264948922358884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.71440972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>713671.5054578341</v>
+        <v>786551.7945514054</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.2982960474094</v>
+        <v>388.2842139144126</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.2428974364445</v>
+        <v>531.2675913682513</v>
       </c>
       <c r="AC3" t="n">
-        <v>419.9362068741083</v>
+        <v>480.5641580868121</v>
       </c>
       <c r="AD3" t="n">
-        <v>339298.2960474094</v>
+        <v>388284.2139144126</v>
       </c>
       <c r="AE3" t="n">
-        <v>464242.8974364445</v>
+        <v>531267.5913682512</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.485644716989616e-06</v>
+        <v>4.402261494341712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.689236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>419936.2068741083</v>
+        <v>480564.1580868121</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.4974709442217</v>
+        <v>346.669226575461</v>
       </c>
       <c r="AB4" t="n">
-        <v>420.731605576875</v>
+        <v>474.3281297674292</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.5775716411343</v>
+        <v>429.0589187861363</v>
       </c>
       <c r="AD4" t="n">
-        <v>307497.4709442217</v>
+        <v>346669.226575461</v>
       </c>
       <c r="AE4" t="n">
-        <v>420731.605576875</v>
+        <v>474328.1297674292</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.612225711465186e-06</v>
+        <v>4.626445841399229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.268229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>380577.5716411343</v>
+        <v>429058.9187861363</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>695.9843909719254</v>
+        <v>765.9143919741332</v>
       </c>
       <c r="AB2" t="n">
-        <v>952.2765483920922</v>
+        <v>1047.957860857222</v>
       </c>
       <c r="AC2" t="n">
-        <v>861.39261114208</v>
+        <v>947.9422334351036</v>
       </c>
       <c r="AD2" t="n">
-        <v>695984.3909719255</v>
+        <v>765914.3919741332</v>
       </c>
       <c r="AE2" t="n">
-        <v>952276.5483920922</v>
+        <v>1047957.860857222</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.664185765477609e-06</v>
+        <v>2.902194659616004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.71484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>861392.61114208</v>
+        <v>947942.2334351037</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>396.5709425467979</v>
+        <v>436.5797988306514</v>
       </c>
       <c r="AB3" t="n">
-        <v>542.6058590677463</v>
+        <v>597.347741301482</v>
       </c>
       <c r="AC3" t="n">
-        <v>490.820317430426</v>
+        <v>540.3377112544882</v>
       </c>
       <c r="AD3" t="n">
-        <v>396570.9425467979</v>
+        <v>436579.7988306514</v>
       </c>
       <c r="AE3" t="n">
-        <v>542605.8590677463</v>
+        <v>597347.741301482</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.336958309524685e-06</v>
+        <v>4.075451230470846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.053819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>490820.317430426</v>
+        <v>540337.7112544882</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.6530574907802</v>
+        <v>359.5765729200621</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.3634153565068</v>
+        <v>491.9885304680448</v>
       </c>
       <c r="AC4" t="n">
-        <v>395.6220648382898</v>
+        <v>445.0338356304131</v>
       </c>
       <c r="AD4" t="n">
-        <v>319653.0574907801</v>
+        <v>359576.5729200621</v>
       </c>
       <c r="AE4" t="n">
-        <v>437363.4153565068</v>
+        <v>491988.5304680447</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.587736712899915e-06</v>
+        <v>4.512786868186592e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>395622.0648382898</v>
+        <v>445033.8356304131</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>318.8859963315743</v>
+        <v>358.8095117608563</v>
       </c>
       <c r="AB5" t="n">
-        <v>436.3138884381314</v>
+        <v>490.9390035496693</v>
       </c>
       <c r="AC5" t="n">
-        <v>394.6727032959838</v>
+        <v>444.0844740881071</v>
       </c>
       <c r="AD5" t="n">
-        <v>318885.9963315743</v>
+        <v>358809.5117608563</v>
       </c>
       <c r="AE5" t="n">
-        <v>436313.8884381314</v>
+        <v>490939.0035496693</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.588126725968927e-06</v>
+        <v>4.51346701692332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.174913194444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>394672.7032959838</v>
+        <v>444084.4740881071</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1013.004159558578</v>
+        <v>1085.366226334075</v>
       </c>
       <c r="AB2" t="n">
-        <v>1386.036981697463</v>
+        <v>1485.045953848776</v>
       </c>
       <c r="AC2" t="n">
-        <v>1253.755557479378</v>
+        <v>1343.315252288535</v>
       </c>
       <c r="AD2" t="n">
-        <v>1013004.159558578</v>
+        <v>1085366.226334075</v>
       </c>
       <c r="AE2" t="n">
-        <v>1386036.981697463</v>
+        <v>1485045.953848776</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.351454136161764e-06</v>
+        <v>2.297382461988788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.11284722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1253755.557479378</v>
+        <v>1343315.252288535</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>497.4462251526604</v>
+        <v>549.1333517719071</v>
       </c>
       <c r="AB3" t="n">
-        <v>680.6278710324691</v>
+        <v>751.3484779480153</v>
       </c>
       <c r="AC3" t="n">
-        <v>615.6697022883461</v>
+        <v>679.6408337368679</v>
       </c>
       <c r="AD3" t="n">
-        <v>497446.2251526604</v>
+        <v>549133.3517719071</v>
       </c>
       <c r="AE3" t="n">
-        <v>680627.8710324691</v>
+        <v>751348.4779480153</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.071790484224587e-06</v>
+        <v>3.521906512410947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.858940972222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>615669.7022883461</v>
+        <v>679640.8337368679</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>397.014221964438</v>
+        <v>448.6160077291131</v>
       </c>
       <c r="AB4" t="n">
-        <v>543.2123735230692</v>
+        <v>613.8162133164177</v>
       </c>
       <c r="AC4" t="n">
-        <v>491.3689469973813</v>
+        <v>555.2344554139642</v>
       </c>
       <c r="AD4" t="n">
-        <v>397014.221964438</v>
+        <v>448616.0077291131</v>
       </c>
       <c r="AE4" t="n">
-        <v>543212.3735230692</v>
+        <v>613816.2133164176</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.354410036515241e-06</v>
+        <v>4.002341020304562e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.674045138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>491368.9469973813</v>
+        <v>555234.4554139641</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>355.9037843008208</v>
+        <v>397.1682342501977</v>
       </c>
       <c r="AB5" t="n">
-        <v>486.9632590472006</v>
+        <v>543.4230999269881</v>
       </c>
       <c r="AC5" t="n">
-        <v>440.4881690609616</v>
+        <v>491.5595619690665</v>
       </c>
       <c r="AD5" t="n">
-        <v>355903.7843008208</v>
+        <v>397168.2342501977</v>
       </c>
       <c r="AE5" t="n">
-        <v>486963.2590472006</v>
+        <v>543423.0999269881</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.484473380260056e-06</v>
+        <v>4.223440084543316e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.220486111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>440488.1690609616</v>
+        <v>491559.5619690665</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>343.3175617673475</v>
+        <v>384.5820117167244</v>
       </c>
       <c r="AB6" t="n">
-        <v>469.7422341119529</v>
+        <v>526.2020749917406</v>
       </c>
       <c r="AC6" t="n">
-        <v>424.9106945756737</v>
+        <v>475.9820874837786</v>
       </c>
       <c r="AD6" t="n">
-        <v>343317.5617673475</v>
+        <v>384582.0117167244</v>
       </c>
       <c r="AE6" t="n">
-        <v>469742.2341119529</v>
+        <v>526202.0749917405</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.524941714420889e-06</v>
+        <v>4.29223357052209e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.088107638888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>424910.6945756737</v>
+        <v>475982.0874837787</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>471.2275912791065</v>
+        <v>528.7911285914589</v>
       </c>
       <c r="AB2" t="n">
-        <v>644.7543794821812</v>
+        <v>723.5153507569772</v>
       </c>
       <c r="AC2" t="n">
-        <v>583.2199264228561</v>
+        <v>654.464061140903</v>
       </c>
       <c r="AD2" t="n">
-        <v>471227.5912791066</v>
+        <v>528791.1285914589</v>
       </c>
       <c r="AE2" t="n">
-        <v>644754.3794821812</v>
+        <v>723515.3507569772</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.047402382369949e-06</v>
+        <v>3.691950992594989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.79210069444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>583219.9264228562</v>
+        <v>654464.061140903</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>296.8714399892689</v>
+        <v>335.2187740878643</v>
       </c>
       <c r="AB3" t="n">
-        <v>406.1926012369081</v>
+        <v>458.661115515588</v>
       </c>
       <c r="AC3" t="n">
-        <v>367.4261494697533</v>
+        <v>414.8871423856982</v>
       </c>
       <c r="AD3" t="n">
-        <v>296871.4399892689</v>
+        <v>335218.7740878643</v>
       </c>
       <c r="AE3" t="n">
-        <v>406192.6012369081</v>
+        <v>458661.115515588</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.629378214963645e-06</v>
+        <v>4.741391137488965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.402777777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>367426.1494697533</v>
+        <v>414887.1423856982</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>296.0981372877345</v>
+        <v>334.44547138633</v>
       </c>
       <c r="AB4" t="n">
-        <v>405.1345343649614</v>
+        <v>457.6030486436412</v>
       </c>
       <c r="AC4" t="n">
-        <v>366.4690630150589</v>
+        <v>413.9300559310039</v>
       </c>
       <c r="AD4" t="n">
-        <v>296098.1372877345</v>
+        <v>334445.47138633</v>
       </c>
       <c r="AE4" t="n">
-        <v>405134.5343649614</v>
+        <v>457603.0486436412</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.639356107124978e-06</v>
+        <v>4.759383638223677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.372395833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>366469.0630150589</v>
+        <v>413930.0559310039</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.5752888047583</v>
+        <v>380.6632991015474</v>
       </c>
       <c r="AB2" t="n">
-        <v>457.7806705626753</v>
+        <v>520.8403195102561</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.0907258633792</v>
+        <v>471.132050420176</v>
       </c>
       <c r="AD2" t="n">
-        <v>334575.2888047583</v>
+        <v>380663.2991015474</v>
       </c>
       <c r="AE2" t="n">
-        <v>457780.6705626753</v>
+        <v>520840.3195102561</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424797542138278e-06</v>
+        <v>4.523897144704829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.4921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>414090.7258633792</v>
+        <v>471132.050420176</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.3681792787712</v>
+        <v>324.5414409215807</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.8756236265545</v>
+        <v>444.0519172267845</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.5253886699305</v>
+        <v>401.6722254774396</v>
       </c>
       <c r="AD3" t="n">
-        <v>278368.1792787712</v>
+        <v>324541.4409215807</v>
       </c>
       <c r="AE3" t="n">
-        <v>380875.6236265545</v>
+        <v>444051.9172267845</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.655579130367858e-06</v>
+        <v>4.954461820682508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.667534722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>344525.3886699305</v>
+        <v>401672.2254774396</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.2056504562481</v>
+        <v>313.07303055077</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.2850004044266</v>
+        <v>428.3603322068839</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.0865722956688</v>
+        <v>387.4782233085604</v>
       </c>
       <c r="AD2" t="n">
-        <v>277205.6504562481</v>
+        <v>313073.03055077</v>
       </c>
       <c r="AE2" t="n">
-        <v>379285.0004044267</v>
+        <v>428360.3322068839</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.62463595015577e-06</v>
+        <v>5.047272263119625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.071180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>343086.5722956688</v>
+        <v>387478.2233085604</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.5219517197168</v>
+        <v>314.3893318142386</v>
       </c>
       <c r="AB3" t="n">
-        <v>381.0860218642177</v>
+        <v>430.161353666675</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.7157067950869</v>
+        <v>389.1073578079785</v>
       </c>
       <c r="AD3" t="n">
-        <v>278521.9517197168</v>
+        <v>314389.3318142386</v>
       </c>
       <c r="AE3" t="n">
-        <v>381086.0218642178</v>
+        <v>430161.353666675</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.628256440326532e-06</v>
+        <v>5.054234599978837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.058159722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>344715.7067950869</v>
+        <v>389107.3578079785</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.5663817947046</v>
+        <v>328.8934414407488</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.1468130529327</v>
+        <v>450.0065163338228</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.7706961580719</v>
+        <v>407.0585260030344</v>
       </c>
       <c r="AD2" t="n">
-        <v>278566.3817947046</v>
+        <v>328893.4414407488</v>
       </c>
       <c r="AE2" t="n">
-        <v>381146.8130529327</v>
+        <v>450006.5163338229</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.385347928138823e-06</v>
+        <v>4.92001701779316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.71397569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>344770.6961580719</v>
+        <v>407058.5260030344</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>639.3635381156521</v>
+        <v>698.7396425907558</v>
       </c>
       <c r="AB2" t="n">
-        <v>874.8053995784065</v>
+        <v>956.0464052100987</v>
       </c>
       <c r="AC2" t="n">
-        <v>791.3152000397324</v>
+        <v>864.8026781164034</v>
       </c>
       <c r="AD2" t="n">
-        <v>639363.538115652</v>
+        <v>698739.6425907558</v>
       </c>
       <c r="AE2" t="n">
-        <v>874805.3995784066</v>
+        <v>956046.4052100987</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.750914487149374e-06</v>
+        <v>3.076287684239443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.20486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>791315.2000397324</v>
+        <v>864802.6781164034</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>364.5253523633842</v>
+        <v>413.9911413597495</v>
       </c>
       <c r="AB3" t="n">
-        <v>498.7596688271385</v>
+        <v>566.4409436085585</v>
       </c>
       <c r="AC3" t="n">
-        <v>451.1587460478673</v>
+        <v>512.3806149554144</v>
       </c>
       <c r="AD3" t="n">
-        <v>364525.3523633842</v>
+        <v>413991.1413597495</v>
       </c>
       <c r="AE3" t="n">
-        <v>498759.6688271384</v>
+        <v>566440.9436085585</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.402829779890029e-06</v>
+        <v>4.221677136976514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.893229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>451158.7460478673</v>
+        <v>512380.6149554144</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>313.5677012870851</v>
+        <v>353.1233538218141</v>
       </c>
       <c r="AB4" t="n">
-        <v>429.037162531643</v>
+        <v>483.158951401888</v>
       </c>
       <c r="AC4" t="n">
-        <v>388.0904578970618</v>
+        <v>437.0469391979383</v>
       </c>
       <c r="AD4" t="n">
-        <v>313567.7012870851</v>
+        <v>353123.3538218141</v>
       </c>
       <c r="AE4" t="n">
-        <v>429037.1625316431</v>
+        <v>483158.951401888</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.595647022063172e-06</v>
+        <v>4.560449425263399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.233506944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>388090.4578970618</v>
+        <v>437046.9391979383</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>314.5436795725849</v>
+        <v>354.0993321073139</v>
       </c>
       <c r="AB5" t="n">
-        <v>430.372539078987</v>
+        <v>484.494327949232</v>
       </c>
       <c r="AC5" t="n">
-        <v>389.29838798094</v>
+        <v>438.2548692818166</v>
       </c>
       <c r="AD5" t="n">
-        <v>314543.6795725849</v>
+        <v>354099.3321073139</v>
       </c>
       <c r="AE5" t="n">
-        <v>430372.539078987</v>
+        <v>484494.327949232</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.597222648148346e-06</v>
+        <v>4.563217738140105e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.229166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>389298.3879809401</v>
+        <v>438254.8692818166</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>920.762632397067</v>
+        <v>992.4827284579553</v>
       </c>
       <c r="AB2" t="n">
-        <v>1259.82805482611</v>
+        <v>1357.958654323947</v>
       </c>
       <c r="AC2" t="n">
-        <v>1139.591833453286</v>
+        <v>1228.356986262211</v>
       </c>
       <c r="AD2" t="n">
-        <v>920762.632397067</v>
+        <v>992482.7284579553</v>
       </c>
       <c r="AE2" t="n">
-        <v>1259828.05482611</v>
+        <v>1357958.654323947</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.424566962648101e-06</v>
+        <v>2.435850748973355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.45529513888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1139591.833453286</v>
+        <v>1228356.98626221</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.6171306754555</v>
+        <v>522.9066645375334</v>
       </c>
       <c r="AB3" t="n">
-        <v>645.2873644695311</v>
+        <v>715.463967434164</v>
       </c>
       <c r="AC3" t="n">
-        <v>583.7020440710625</v>
+        <v>647.1810905422317</v>
       </c>
       <c r="AD3" t="n">
-        <v>471617.1306754555</v>
+        <v>522906.6645375334</v>
       </c>
       <c r="AE3" t="n">
-        <v>645287.3644695311</v>
+        <v>715463.967434164</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.132959740170622e-06</v>
+        <v>3.647123453548767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.654947916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>583702.0440710625</v>
+        <v>647181.0905422317</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>377.7023386102518</v>
+        <v>418.8193065544857</v>
       </c>
       <c r="AB4" t="n">
-        <v>516.7890027377078</v>
+        <v>573.0470522316119</v>
       </c>
       <c r="AC4" t="n">
-        <v>467.4673856343411</v>
+        <v>518.3562458432153</v>
       </c>
       <c r="AD4" t="n">
-        <v>377702.3386102518</v>
+        <v>418819.3065544857</v>
       </c>
       <c r="AE4" t="n">
-        <v>516789.0027377079</v>
+        <v>573047.0522316119</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.408820129220584e-06</v>
+        <v>4.118813976281617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.550347222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>467467.3856343411</v>
+        <v>518356.2458432154</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>339.5886887051379</v>
+        <v>380.5350644487796</v>
       </c>
       <c r="AB5" t="n">
-        <v>464.6402254819684</v>
+        <v>520.6648632010255</v>
       </c>
       <c r="AC5" t="n">
-        <v>420.2956144886209</v>
+        <v>470.973339414844</v>
       </c>
       <c r="AD5" t="n">
-        <v>339588.6887051379</v>
+        <v>380535.0644487796</v>
       </c>
       <c r="AE5" t="n">
-        <v>464640.2254819684</v>
+        <v>520664.8632010255</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.530286004000065e-06</v>
+        <v>4.32650708570647e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.138020833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>420295.6144886208</v>
+        <v>470973.3394148439</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>337.5616586512092</v>
+        <v>378.5080343948509</v>
       </c>
       <c r="AB6" t="n">
-        <v>461.8667535359286</v>
+        <v>517.8913912549857</v>
       </c>
       <c r="AC6" t="n">
-        <v>417.7868388125187</v>
+        <v>468.4645637387419</v>
       </c>
       <c r="AD6" t="n">
-        <v>337561.6586512092</v>
+        <v>378508.0343948509</v>
       </c>
       <c r="AE6" t="n">
-        <v>461866.7535359286</v>
+        <v>517891.3912549857</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.540155106325898e-06</v>
+        <v>4.343382150847239e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>417786.8388125187</v>
+        <v>468464.5637387419</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.6387260240506</v>
+        <v>358.5188844367097</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.7154123075127</v>
+        <v>490.5413544231993</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.3264326066022</v>
+        <v>443.7247760361633</v>
       </c>
       <c r="AD2" t="n">
-        <v>301638.7260240506</v>
+        <v>358518.8844367097</v>
       </c>
       <c r="AE2" t="n">
-        <v>412715.4123075127</v>
+        <v>490541.3544231993</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.109837701284169e-06</v>
+        <v>4.522353964972328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.54123263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>373326.4326066022</v>
+        <v>443724.7760361633</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.0134655767534</v>
+        <v>431.1122477180865</v>
       </c>
       <c r="AB2" t="n">
-        <v>513.1099680285691</v>
+        <v>589.8667966579392</v>
       </c>
       <c r="AC2" t="n">
-        <v>464.1394728342849</v>
+        <v>533.5707374681534</v>
       </c>
       <c r="AD2" t="n">
-        <v>375013.4655767534</v>
+        <v>431112.2477180865</v>
       </c>
       <c r="AE2" t="n">
-        <v>513109.9680285692</v>
+        <v>589866.7966579392</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.287868614635875e-06</v>
+        <v>4.215243571648513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.913194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>464139.4728342849</v>
+        <v>533570.7374681535</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.0208103872864</v>
+        <v>321.6191271421756</v>
       </c>
       <c r="AB3" t="n">
-        <v>388.6098028857095</v>
+        <v>440.0534785904174</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.5214287155805</v>
+        <v>398.0553922126835</v>
       </c>
       <c r="AD3" t="n">
-        <v>284020.8103872864</v>
+        <v>321619.1271421756</v>
       </c>
       <c r="AE3" t="n">
-        <v>388609.8028857095</v>
+        <v>440053.4785904174</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.653555530839381e-06</v>
+        <v>4.888997043723713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.548177083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>351521.4287155805</v>
+        <v>398055.3922126835</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.9648329136505</v>
+        <v>585.0768261584727</v>
       </c>
       <c r="AB2" t="n">
-        <v>721.0165324401208</v>
+        <v>800.52792531789</v>
       </c>
       <c r="AC2" t="n">
-        <v>652.203726537094</v>
+        <v>724.1266636735496</v>
       </c>
       <c r="AD2" t="n">
-        <v>526964.8329136505</v>
+        <v>585076.8261584727</v>
       </c>
       <c r="AE2" t="n">
-        <v>721016.5324401208</v>
+        <v>800527.92531789</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.942517306615551e-06</v>
+        <v>3.47016540669566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.24131944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>652203.726537094</v>
+        <v>724126.6636735497</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.4960869946769</v>
+        <v>354.4364848128581</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.6756649311433</v>
+        <v>484.9556351550851</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.4771453307151</v>
+        <v>438.6721499753918</v>
       </c>
       <c r="AD3" t="n">
-        <v>315496.0869946769</v>
+        <v>354436.484812858</v>
       </c>
       <c r="AE3" t="n">
-        <v>431675.6649311433</v>
+        <v>484955.6351550851</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.567886126124262e-06</v>
+        <v>4.587341164406798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.504774305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>390477.1453307151</v>
+        <v>438672.1499753918</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.693343800944</v>
+        <v>339.4631494185329</v>
       </c>
       <c r="AB4" t="n">
-        <v>411.4218986425382</v>
+        <v>464.468457091633</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.156370070355</v>
+        <v>420.1402394323804</v>
       </c>
       <c r="AD4" t="n">
-        <v>300693.343800944</v>
+        <v>339463.1494185328</v>
       </c>
       <c r="AE4" t="n">
-        <v>411421.8986425382</v>
+        <v>464468.457091633</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631278299300527e-06</v>
+        <v>4.700586655534396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.298611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>372156.370070355</v>
+        <v>420140.2394323804</v>
       </c>
     </row>
   </sheetData>
